--- a/related/Countries.xlsx
+++ b/related/Countries.xlsx
@@ -1,22 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$B$1:$G$237</definedName>
-  </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1561">
@@ -4816,291 +4797,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
-  <a:themeElements>
-    <a:clrScheme name="Стандартная">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Стандартная">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14615,5712 +14311,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J237"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>36</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J65" si="0">F2&amp;"("&amp;G2&amp; ", """ &amp; TRIM(B2) &amp; """, """ &amp; C2 &amp; """), // " &amp; B2</f>
-        <v>AUS(36, "Австралия", "Australia"), // Австралия</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="0"/>
-        <v>AUT(40, "Австрия", "Austria"), // Австрия</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>AZE(31, "Азербайджан", "Azerbaijan"), // Азербайджан</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>ALB(8, "Албания", "Albania"), // Албания</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>DZA(12, "Алжир", "Algeria"), // Алжир</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>ASM(16, "Американское Самоа", "American Samoa"), // Американское Самоа</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>840</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>USA(840, "Соединенные Штаты Америки (США)", "United States"), // Соединенные Штаты Америки (США)</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9">
-        <v>660</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>AIA(660, "Ангилья", "Anguilla"), // Ангилья</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>24</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>AGO(24, "Ангола", "Angola"), // Ангола</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>AND(20, "Андорра", "Andorra"), // Андорра</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12">
-        <v>28</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>ATG(28, "Антигуа и Барбуда", "Antigua and Barbuda"), // Антигуа и Барбуда</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13">
-        <v>32</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>ARG(32, "Аргентина", "Argentina"), // Аргентина</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14">
-        <v>51</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>ARM(51, "Армения", "Armenia"), // Армения</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15">
-        <v>533</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>ABW(533, "Аруба", "Aruba"), // Аруба</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>AFG(4, "Афганистан", "Afghanistan"), // Афганистан</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17">
-        <v>44</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>BHS(44, "Багамы", "The Bahamas"), // Багамы</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>BGD(50, "Бангладеш", "Bangladesh"), // Бангладеш</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19">
-        <v>52</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>BRB(52, "Барбадос", "Barbados"), // Барбадос</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20">
-        <v>48</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>BHR(48, "Бахрейн", "Bahrain"), // Бахрейн</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21">
-        <v>84</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>BLZ(84, "Белиз", "Belize"), // Белиз</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22">
-        <v>112</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>BLR(112, "Беларусь", "Belarus"), // Беларусь</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23">
-        <v>56</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>BEL(56, "Бельгия", "Belgium"), // Бельгия</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24">
-        <v>204</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>BEN(204, "Бенин", "Benin"), // Бенин</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25">
-        <v>60</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>BMU(60, "Бермудские острова", "Bermuda"), // Бермудские острова</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>BGR(100, "Болгария", "Bulgaria"), // Болгария</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27">
-        <v>68</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>BOL(68, "Боливия", "Bolivia"), // Боливия</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28">
-        <v>70</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>BIH(70, "Босния и Герцеговина", "Bosnia and Herzegovina"), // Босния и Герцеговина</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29">
-        <v>72</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>BWA(72, "Ботсвана", "Botswana"), // Ботсвана</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30">
-        <v>76</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>BRA(76, "Бразилия", "Brazil"), // Бразилия</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F31" t="s">
-        <v>172</v>
-      </c>
-      <c r="G31">
-        <v>86</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>IOT(86, "Британская территория в Индийском океане", "British Indian Ocean Territory"), // Британская территория в Индийском океане</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32">
-        <v>92</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>VGB(92, "Британские Виргинские острова", "British Virgin Islands"), // Британские Виргинские острова</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33">
-        <v>96</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>BRN(96, "Бруней-Даруссалам", "Brunei"), // Бруней-Даруссалам</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34">
-        <v>854</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>BFA(854, "Буркина-Фасо", "Burkina Faso"), // Буркина-Фасо</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C35" t="s">
-        <v>190</v>
-      </c>
-      <c r="D35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" t="s">
-        <v>193</v>
-      </c>
-      <c r="G35">
-        <v>108</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v>BDI(108, "Бурунди", "Burundi"), // Бурунди</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36">
-        <v>64</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v>BTN(64, "Бутан", "Bhutan"), // Бутан</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37">
-        <v>548</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v>VUT(548, "Вануату", "Vanuatu"), // Вануату</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" t="s">
-        <v>206</v>
-      </c>
-      <c r="E38" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38">
-        <v>336</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="0"/>
-        <v>VAT(336, "Ватикан", "Holy See (Vatican City)"), // Ватикан</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C39" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39">
-        <v>826</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="0"/>
-        <v>GBR(826, "Великобритания", "United Kingdom"), // Великобритания</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C40" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" t="s">
-        <v>219</v>
-      </c>
-      <c r="E40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F40" t="s">
-        <v>221</v>
-      </c>
-      <c r="G40">
-        <v>348</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v>HUN(348, "Венгрия", "Hungary"), // Венгрия</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C41" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41">
-        <v>862</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v>VEN(862, "Венесуэла", "Venezuela"), // Венесуэла</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C42" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" t="s">
-        <v>232</v>
-      </c>
-      <c r="F42" t="s">
-        <v>233</v>
-      </c>
-      <c r="G42">
-        <v>850</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v>VIR(850, "Виргинские острова США", "Virgin Islands"), // Виргинские острова США</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C43" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" t="s">
-        <v>237</v>
-      </c>
-      <c r="E43" t="s">
-        <v>238</v>
-      </c>
-      <c r="F43" t="s">
-        <v>239</v>
-      </c>
-      <c r="G43">
-        <v>704</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v>VNM(704, "Вьетнам", "Vietnam"), // Вьетнам</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C44" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E44" t="s">
-        <v>244</v>
-      </c>
-      <c r="F44" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44">
-        <v>266</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v>GAB(266, "Габон", "Gabon"), // Габон</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C45" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" t="s">
-        <v>249</v>
-      </c>
-      <c r="E45" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G45">
-        <v>332</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="0"/>
-        <v>HTI(332, "Гаити", "Haiti"), // Гаити</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C46" t="s">
-        <v>254</v>
-      </c>
-      <c r="D46" t="s">
-        <v>255</v>
-      </c>
-      <c r="E46" t="s">
-        <v>256</v>
-      </c>
-      <c r="F46" t="s">
-        <v>257</v>
-      </c>
-      <c r="G46">
-        <v>328</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v>GUY(328, "Гайана", "Guyana"), // Гайана</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C47" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" t="s">
-        <v>261</v>
-      </c>
-      <c r="E47" t="s">
-        <v>262</v>
-      </c>
-      <c r="F47" t="s">
-        <v>263</v>
-      </c>
-      <c r="G47">
-        <v>270</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="0"/>
-        <v>GMB(270, "Гамбия", "The Gambia"), // Гамбия</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" t="s">
-        <v>267</v>
-      </c>
-      <c r="E48" t="s">
-        <v>268</v>
-      </c>
-      <c r="F48" t="s">
-        <v>269</v>
-      </c>
-      <c r="G48">
-        <v>288</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="0"/>
-        <v>GHA(288, "Гана", "Ghana"), // Гана</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" t="s">
-        <v>271</v>
-      </c>
-      <c r="D49" t="s">
-        <v>272</v>
-      </c>
-      <c r="E49" t="s">
-        <v>273</v>
-      </c>
-      <c r="F49" t="s">
-        <v>274</v>
-      </c>
-      <c r="G49">
-        <v>312</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="0"/>
-        <v>GLP(312, "Гваделупа", "Guadeloupe"), // Гваделупа</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" t="s">
-        <v>277</v>
-      </c>
-      <c r="D50" t="s">
-        <v>278</v>
-      </c>
-      <c r="E50" t="s">
-        <v>279</v>
-      </c>
-      <c r="F50" t="s">
-        <v>280</v>
-      </c>
-      <c r="G50">
-        <v>320</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="0"/>
-        <v>GTM(320, "Гватемала", "Guatemala"), // Гватемала</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C51" t="s">
-        <v>283</v>
-      </c>
-      <c r="D51" t="s">
-        <v>284</v>
-      </c>
-      <c r="E51" t="s">
-        <v>285</v>
-      </c>
-      <c r="F51" t="s">
-        <v>286</v>
-      </c>
-      <c r="G51">
-        <v>624</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="0"/>
-        <v>GNB(624, "Гвинея-Бисау", "Guinea-Bissau"), // Гвинея-Бисау</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D52" t="s">
-        <v>290</v>
-      </c>
-      <c r="E52" t="s">
-        <v>291</v>
-      </c>
-      <c r="F52" t="s">
-        <v>292</v>
-      </c>
-      <c r="G52">
-        <v>324</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="0"/>
-        <v>GIN(324, "Гвинея", "Guinea"), // Гвинея</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C53" t="s">
-        <v>295</v>
-      </c>
-      <c r="D53" t="s">
-        <v>296</v>
-      </c>
-      <c r="E53" t="s">
-        <v>297</v>
-      </c>
-      <c r="F53" t="s">
-        <v>298</v>
-      </c>
-      <c r="G53">
-        <v>276</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="0"/>
-        <v>DEU(276, "Германия", "Germany"), // Германия</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>299</v>
-      </c>
-      <c r="C54" t="s">
-        <v>300</v>
-      </c>
-      <c r="D54" t="s">
-        <v>301</v>
-      </c>
-      <c r="E54" t="s">
-        <v>302</v>
-      </c>
-      <c r="F54" t="s">
-        <v>303</v>
-      </c>
-      <c r="G54">
-        <v>831</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="0"/>
-        <v>GGY(831, "Гернси", "Guernsey"), // Гернси</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>304</v>
-      </c>
-      <c r="C55" t="s">
-        <v>305</v>
-      </c>
-      <c r="D55" t="s">
-        <v>304</v>
-      </c>
-      <c r="E55" t="s">
-        <v>306</v>
-      </c>
-      <c r="F55" t="s">
-        <v>307</v>
-      </c>
-      <c r="G55">
-        <v>292</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="0"/>
-        <v>GIB(292, "Гибралтар", "Gibraltar"), // Гибралтар</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C56" t="s">
-        <v>310</v>
-      </c>
-      <c r="D56" t="s">
-        <v>311</v>
-      </c>
-      <c r="E56" t="s">
-        <v>312</v>
-      </c>
-      <c r="F56" t="s">
-        <v>313</v>
-      </c>
-      <c r="G56">
-        <v>528</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="0"/>
-        <v>NLD(528, "Нидерланды", "Netherlands"), // Нидерланды</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C57" t="s">
-        <v>316</v>
-      </c>
-      <c r="D57" t="s">
-        <v>317</v>
-      </c>
-      <c r="E57" t="s">
-        <v>318</v>
-      </c>
-      <c r="F57" t="s">
-        <v>319</v>
-      </c>
-      <c r="G57">
-        <v>340</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="0"/>
-        <v>HND(340, "Гондурас", "Honduras"), // Гондурас</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>323</v>
-      </c>
-      <c r="C58" t="s">
-        <v>322</v>
-      </c>
-      <c r="D58" t="s">
-        <v>323</v>
-      </c>
-      <c r="E58" t="s">
-        <v>324</v>
-      </c>
-      <c r="F58" t="s">
-        <v>325</v>
-      </c>
-      <c r="G58">
-        <v>344</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="0"/>
-        <v>HKG(344, "Гонконг", "Hong Kong"), // Гонконг</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>326</v>
-      </c>
-      <c r="C59" t="s">
-        <v>327</v>
-      </c>
-      <c r="D59" t="s">
-        <v>328</v>
-      </c>
-      <c r="E59" t="s">
-        <v>329</v>
-      </c>
-      <c r="F59" t="s">
-        <v>330</v>
-      </c>
-      <c r="G59">
-        <v>308</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="0"/>
-        <v>GRD(308, "Гренада", "Grenada"), // Гренада</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>331</v>
-      </c>
-      <c r="C60" t="s">
-        <v>332</v>
-      </c>
-      <c r="D60" t="s">
-        <v>333</v>
-      </c>
-      <c r="E60" t="s">
-        <v>334</v>
-      </c>
-      <c r="F60" t="s">
-        <v>335</v>
-      </c>
-      <c r="G60">
-        <v>304</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="0"/>
-        <v>GRL(304, "Гренландия", "Greenland"), // Гренландия</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C61" t="s">
-        <v>338</v>
-      </c>
-      <c r="D61" t="s">
-        <v>339</v>
-      </c>
-      <c r="E61" t="s">
-        <v>340</v>
-      </c>
-      <c r="F61" t="s">
-        <v>341</v>
-      </c>
-      <c r="G61">
-        <v>300</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="0"/>
-        <v>GRC(300, "Греция", "Greece"), // Греция</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>342</v>
-      </c>
-      <c r="C62" t="s">
-        <v>343</v>
-      </c>
-      <c r="D62" t="s">
-        <v>344</v>
-      </c>
-      <c r="E62" t="s">
-        <v>345</v>
-      </c>
-      <c r="F62" t="s">
-        <v>346</v>
-      </c>
-      <c r="G62">
-        <v>268</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="0"/>
-        <v>GEO(268, "Грузия", "Georgia"), // Грузия</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>347</v>
-      </c>
-      <c r="C63" t="s">
-        <v>348</v>
-      </c>
-      <c r="D63" t="s">
-        <v>349</v>
-      </c>
-      <c r="E63" t="s">
-        <v>350</v>
-      </c>
-      <c r="F63" t="s">
-        <v>351</v>
-      </c>
-      <c r="G63">
-        <v>316</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="0"/>
-        <v>GUM(316, "Гуам", "Guam"), // Гуам</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C64" t="s">
-        <v>354</v>
-      </c>
-      <c r="D64" t="s">
-        <v>355</v>
-      </c>
-      <c r="E64" t="s">
-        <v>356</v>
-      </c>
-      <c r="F64" t="s">
-        <v>357</v>
-      </c>
-      <c r="G64">
-        <v>208</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="0"/>
-        <v>DNK(208, "Дания", "Denmark"), // Дания</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>358</v>
-      </c>
-      <c r="C65" t="s">
-        <v>359</v>
-      </c>
-      <c r="D65" t="s">
-        <v>360</v>
-      </c>
-      <c r="E65" t="s">
-        <v>361</v>
-      </c>
-      <c r="F65" t="s">
-        <v>362</v>
-      </c>
-      <c r="G65">
-        <v>180</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="0"/>
-        <v>COD(180, "Демократическая Республика Конго", "Democratic Republic of the Congo"), // Демократическая Республика Конго</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>363</v>
-      </c>
-      <c r="C66" t="s">
-        <v>364</v>
-      </c>
-      <c r="D66" t="s">
-        <v>365</v>
-      </c>
-      <c r="E66" t="s">
-        <v>366</v>
-      </c>
-      <c r="F66" t="s">
-        <v>367</v>
-      </c>
-      <c r="G66">
-        <v>832</v>
-      </c>
-      <c r="J66" t="str">
-        <f t="shared" ref="J66:J77" si="1">F66&amp;"("&amp;G66&amp; ", """ &amp; TRIM(B66) &amp; """, """ &amp; C66 &amp; """), // " &amp; B66</f>
-        <v>JEY(832, "Джерси", "Jersey"), // Джерси</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>371</v>
-      </c>
-      <c r="C67" t="s">
-        <v>370</v>
-      </c>
-      <c r="D67" t="s">
-        <v>371</v>
-      </c>
-      <c r="E67" t="s">
-        <v>372</v>
-      </c>
-      <c r="F67" t="s">
-        <v>373</v>
-      </c>
-      <c r="G67">
-        <v>262</v>
-      </c>
-      <c r="J67" t="str">
-        <f t="shared" si="1"/>
-        <v>DJI(262, "Джибути", "Djibouti"), // Джибути</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>374</v>
-      </c>
-      <c r="C68" t="s">
-        <v>375</v>
-      </c>
-      <c r="D68" t="s">
-        <v>376</v>
-      </c>
-      <c r="E68" t="s">
-        <v>377</v>
-      </c>
-      <c r="F68" t="s">
-        <v>378</v>
-      </c>
-      <c r="G68">
-        <v>214</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" si="1"/>
-        <v>DOM(214, "Доминиканская Республика", "Dominican Republic"), // Доминиканская Республика</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C69" t="s">
-        <v>381</v>
-      </c>
-      <c r="D69" t="s">
-        <v>382</v>
-      </c>
-      <c r="E69" t="s">
-        <v>383</v>
-      </c>
-      <c r="F69" t="s">
-        <v>384</v>
-      </c>
-      <c r="G69">
-        <v>212</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" si="1"/>
-        <v>DMA(212, "Доминика", "Dominica"), // Доминика</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C70" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" t="s">
-        <v>388</v>
-      </c>
-      <c r="E70" t="s">
-        <v>389</v>
-      </c>
-      <c r="F70" t="s">
-        <v>390</v>
-      </c>
-      <c r="G70">
-        <v>818</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="1"/>
-        <v>EGY(818, "Египет", "Egypt"), // Египет</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C71" t="s">
-        <v>393</v>
-      </c>
-      <c r="D71" t="s">
-        <v>394</v>
-      </c>
-      <c r="E71" t="s">
-        <v>395</v>
-      </c>
-      <c r="F71" t="s">
-        <v>396</v>
-      </c>
-      <c r="G71">
-        <v>894</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="1"/>
-        <v>ZMB(894, "Замбия", "Zambia"), // Замбия</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C72" t="s">
-        <v>403</v>
-      </c>
-      <c r="D72" t="s">
-        <v>404</v>
-      </c>
-      <c r="E72" t="s">
-        <v>405</v>
-      </c>
-      <c r="F72" t="s">
-        <v>406</v>
-      </c>
-      <c r="G72">
-        <v>716</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="1"/>
-        <v>ZWE(716, "Зимбабве", "Zimbabwe"), // Зимбабве</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C73" t="s">
-        <v>409</v>
-      </c>
-      <c r="D73" t="s">
-        <v>410</v>
-      </c>
-      <c r="E73" t="s">
-        <v>411</v>
-      </c>
-      <c r="F73" t="s">
-        <v>412</v>
-      </c>
-      <c r="G73">
-        <v>376</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="1"/>
-        <v>ISR(376, "Израиль", "Israel"), // Израиль</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C74" t="s">
-        <v>415</v>
-      </c>
-      <c r="D74" t="s">
-        <v>416</v>
-      </c>
-      <c r="E74" t="s">
-        <v>417</v>
-      </c>
-      <c r="F74" t="s">
-        <v>418</v>
-      </c>
-      <c r="G74">
-        <v>356</v>
-      </c>
-      <c r="J74" t="str">
-        <f t="shared" si="1"/>
-        <v>IND(356, "Индия", "India"), // Индия</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C75" t="s">
-        <v>421</v>
-      </c>
-      <c r="D75" t="s">
-        <v>422</v>
-      </c>
-      <c r="E75" t="s">
-        <v>423</v>
-      </c>
-      <c r="F75" t="s">
-        <v>424</v>
-      </c>
-      <c r="G75">
-        <v>360</v>
-      </c>
-      <c r="J75" t="str">
-        <f t="shared" si="1"/>
-        <v>IDN(360, "Индонезия", "Indonesia"), // Индонезия</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C76" t="s">
-        <v>427</v>
-      </c>
-      <c r="D76" t="s">
-        <v>428</v>
-      </c>
-      <c r="E76" t="s">
-        <v>429</v>
-      </c>
-      <c r="F76" t="s">
-        <v>430</v>
-      </c>
-      <c r="G76">
-        <v>400</v>
-      </c>
-      <c r="J76" t="str">
-        <f t="shared" si="1"/>
-        <v>JOR(400, "Иордания", "Jordan"), // Иордания</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C77" t="s">
-        <v>433</v>
-      </c>
-      <c r="D77" t="s">
-        <v>434</v>
-      </c>
-      <c r="E77" t="s">
-        <v>435</v>
-      </c>
-      <c r="F77" t="s">
-        <v>436</v>
-      </c>
-      <c r="G77">
-        <v>368</v>
-      </c>
-      <c r="J77" t="str">
-        <f t="shared" si="1"/>
-        <v>IRQ(368, "Ирак", "Iraq"), // Ирак</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C78" t="s">
-        <v>439</v>
-      </c>
-      <c r="D78" t="s">
-        <v>440</v>
-      </c>
-      <c r="E78" t="s">
-        <v>441</v>
-      </c>
-      <c r="F78" t="s">
-        <v>442</v>
-      </c>
-      <c r="G78">
-        <v>364</v>
-      </c>
-      <c r="J78" t="str">
-        <f>F78&amp;"("&amp;G78&amp; ", """ &amp; TRIM(B78) &amp; """, """ &amp; C78 &amp; """), // " &amp; B78</f>
-        <v>IRN(364, "Иран", "Iran"), // Иран</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>443</v>
-      </c>
-      <c r="C79" t="s">
-        <v>444</v>
-      </c>
-      <c r="D79" t="s">
-        <v>445</v>
-      </c>
-      <c r="E79" t="s">
-        <v>446</v>
-      </c>
-      <c r="F79" t="s">
-        <v>447</v>
-      </c>
-      <c r="G79">
-        <v>372</v>
-      </c>
-      <c r="J79" t="str">
-        <f t="shared" ref="J79:J141" si="2">F79&amp;"("&amp;G79&amp; ", """ &amp; TRIM(B79) &amp; """, """ &amp; C79 &amp; """), // " &amp; B79</f>
-        <v>IRL(372, "Ирландия", "Ireland"), // Ирландия</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C80" t="s">
-        <v>450</v>
-      </c>
-      <c r="D80" t="s">
-        <v>451</v>
-      </c>
-      <c r="E80" t="s">
-        <v>452</v>
-      </c>
-      <c r="F80" t="s">
-        <v>453</v>
-      </c>
-      <c r="G80">
-        <v>352</v>
-      </c>
-      <c r="J80" t="str">
-        <f t="shared" si="2"/>
-        <v>ISL(352, "Исландия", "Iceland"), // Исландия</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C81" t="s">
-        <v>456</v>
-      </c>
-      <c r="D81" t="s">
-        <v>457</v>
-      </c>
-      <c r="E81" t="s">
-        <v>458</v>
-      </c>
-      <c r="F81" t="s">
-        <v>459</v>
-      </c>
-      <c r="G81">
-        <v>724</v>
-      </c>
-      <c r="J81" t="str">
-        <f t="shared" si="2"/>
-        <v>ESP(724, "Испания", "Spain"), // Испания</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C82" t="s">
-        <v>462</v>
-      </c>
-      <c r="D82" t="s">
-        <v>463</v>
-      </c>
-      <c r="E82" t="s">
-        <v>464</v>
-      </c>
-      <c r="F82" t="s">
-        <v>465</v>
-      </c>
-      <c r="G82">
-        <v>380</v>
-      </c>
-      <c r="J82" t="str">
-        <f t="shared" si="2"/>
-        <v>ITA(380, "Италия", "Italy"), // Италия</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C83" t="s">
-        <v>468</v>
-      </c>
-      <c r="D83" t="s">
-        <v>469</v>
-      </c>
-      <c r="E83" t="s">
-        <v>470</v>
-      </c>
-      <c r="F83" t="s">
-        <v>471</v>
-      </c>
-      <c r="G83">
-        <v>887</v>
-      </c>
-      <c r="J83" t="str">
-        <f t="shared" si="2"/>
-        <v>YEM(887, "Йемен", "Yemen"), // Йемен</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C84" t="s">
-        <v>474</v>
-      </c>
-      <c r="D84" t="s">
-        <v>475</v>
-      </c>
-      <c r="E84" t="s">
-        <v>476</v>
-      </c>
-      <c r="F84" t="s">
-        <v>477</v>
-      </c>
-      <c r="G84">
-        <v>132</v>
-      </c>
-      <c r="J84" t="str">
-        <f t="shared" si="2"/>
-        <v>CPV(132, "Кабо-Верде", "Cape Verde"), // Кабо-Верде</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C85" t="s">
-        <v>480</v>
-      </c>
-      <c r="D85" t="s">
-        <v>481</v>
-      </c>
-      <c r="E85" t="s">
-        <v>482</v>
-      </c>
-      <c r="F85" t="s">
-        <v>483</v>
-      </c>
-      <c r="G85">
-        <v>398</v>
-      </c>
-      <c r="J85" t="str">
-        <f t="shared" si="2"/>
-        <v>KAZ(398, "Казахстан", "Kazakhstan"), // Казахстан</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>484</v>
-      </c>
-      <c r="C86" t="s">
-        <v>485</v>
-      </c>
-      <c r="D86" t="s">
-        <v>486</v>
-      </c>
-      <c r="E86" t="s">
-        <v>487</v>
-      </c>
-      <c r="F86" t="s">
-        <v>488</v>
-      </c>
-      <c r="G86">
-        <v>136</v>
-      </c>
-      <c r="J86" t="str">
-        <f t="shared" si="2"/>
-        <v>CYM(136, "Каймановы острова", "Cayman Islands"), // Каймановы острова</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C87" t="s">
-        <v>491</v>
-      </c>
-      <c r="D87" t="s">
-        <v>492</v>
-      </c>
-      <c r="E87" t="s">
-        <v>493</v>
-      </c>
-      <c r="F87" t="s">
-        <v>494</v>
-      </c>
-      <c r="G87">
-        <v>116</v>
-      </c>
-      <c r="J87" t="str">
-        <f t="shared" si="2"/>
-        <v>KHM(116, "Камбоджа", "Cambodia"), // Камбоджа</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C88" t="s">
-        <v>497</v>
-      </c>
-      <c r="D88" t="s">
-        <v>498</v>
-      </c>
-      <c r="E88" t="s">
-        <v>499</v>
-      </c>
-      <c r="F88" t="s">
-        <v>500</v>
-      </c>
-      <c r="G88">
-        <v>120</v>
-      </c>
-      <c r="J88" t="str">
-        <f t="shared" si="2"/>
-        <v>CMR(120, "Камерун", "Cameroon"), // Камерун</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>501</v>
-      </c>
-      <c r="C89" t="s">
-        <v>502</v>
-      </c>
-      <c r="D89" t="s">
-        <v>503</v>
-      </c>
-      <c r="E89" t="s">
-        <v>504</v>
-      </c>
-      <c r="F89" t="s">
-        <v>505</v>
-      </c>
-      <c r="G89">
-        <v>124</v>
-      </c>
-      <c r="J89" t="str">
-        <f t="shared" si="2"/>
-        <v>CAN(124, "Канада", "Canada"), // Канада</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C90" t="s">
-        <v>508</v>
-      </c>
-      <c r="D90" t="s">
-        <v>509</v>
-      </c>
-      <c r="E90" t="s">
-        <v>510</v>
-      </c>
-      <c r="F90" t="s">
-        <v>511</v>
-      </c>
-      <c r="G90">
-        <v>634</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" si="2"/>
-        <v>QAT(634, "Катар", "Qatar"), // Катар</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C91" t="s">
-        <v>514</v>
-      </c>
-      <c r="D91" t="s">
-        <v>515</v>
-      </c>
-      <c r="E91" t="s">
-        <v>516</v>
-      </c>
-      <c r="F91" t="s">
-        <v>517</v>
-      </c>
-      <c r="G91">
-        <v>404</v>
-      </c>
-      <c r="J91" t="str">
-        <f t="shared" si="2"/>
-        <v>KEN(404, "Кения", "Kenya"), // Кения</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C92" t="s">
-        <v>520</v>
-      </c>
-      <c r="D92" t="s">
-        <v>521</v>
-      </c>
-      <c r="E92" t="s">
-        <v>522</v>
-      </c>
-      <c r="F92" t="s">
-        <v>523</v>
-      </c>
-      <c r="G92">
-        <v>196</v>
-      </c>
-      <c r="J92" t="str">
-        <f t="shared" si="2"/>
-        <v>CYP(196, "Кипр", "Cyprus"), // Кипр</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C93" t="s">
-        <v>526</v>
-      </c>
-      <c r="D93" t="s">
-        <v>527</v>
-      </c>
-      <c r="E93" t="s">
-        <v>528</v>
-      </c>
-      <c r="F93" t="s">
-        <v>529</v>
-      </c>
-      <c r="G93">
-        <v>296</v>
-      </c>
-      <c r="J93" t="str">
-        <f t="shared" si="2"/>
-        <v>KIR(296, "Кирибати", "Kiribati"), // Кирибати</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C94" t="s">
-        <v>532</v>
-      </c>
-      <c r="D94" t="s">
-        <v>533</v>
-      </c>
-      <c r="E94" t="s">
-        <v>534</v>
-      </c>
-      <c r="F94" t="s">
-        <v>535</v>
-      </c>
-      <c r="G94">
-        <v>156</v>
-      </c>
-      <c r="J94" t="str">
-        <f t="shared" si="2"/>
-        <v>CHN(156, "Китай (КНР)", "China"), // Китай (КНР)</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>536</v>
-      </c>
-      <c r="C95" t="s">
-        <v>537</v>
-      </c>
-      <c r="D95" t="s">
-        <v>538</v>
-      </c>
-      <c r="E95" t="s">
-        <v>539</v>
-      </c>
-      <c r="F95" t="s">
-        <v>540</v>
-      </c>
-      <c r="G95">
-        <v>166</v>
-      </c>
-      <c r="J95" t="str">
-        <f t="shared" si="2"/>
-        <v>CCK(166, "Кокосовые (Килинг) острова", "Cocos (Keeling) Islands"), // Кокосовые (Килинг) острова</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C96" t="s">
-        <v>543</v>
-      </c>
-      <c r="D96" t="s">
-        <v>544</v>
-      </c>
-      <c r="E96" t="s">
-        <v>545</v>
-      </c>
-      <c r="F96" t="s">
-        <v>546</v>
-      </c>
-      <c r="G96">
-        <v>170</v>
-      </c>
-      <c r="J96" t="str">
-        <f t="shared" si="2"/>
-        <v>COL(170, "Колумбия", "Colombia"), // Колумбия</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C97" t="s">
-        <v>549</v>
-      </c>
-      <c r="D97" t="s">
-        <v>550</v>
-      </c>
-      <c r="E97" t="s">
-        <v>551</v>
-      </c>
-      <c r="F97" t="s">
-        <v>552</v>
-      </c>
-      <c r="G97">
-        <v>174</v>
-      </c>
-      <c r="J97" t="str">
-        <f t="shared" si="2"/>
-        <v>COM(174, "Коморы", "Comoros"), // Коморы</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C98" t="s">
-        <v>555</v>
-      </c>
-      <c r="D98" t="s">
-        <v>556</v>
-      </c>
-      <c r="E98" t="s">
-        <v>557</v>
-      </c>
-      <c r="F98" t="s">
-        <v>558</v>
-      </c>
-      <c r="G98">
-        <v>178</v>
-      </c>
-      <c r="J98" t="str">
-        <f t="shared" si="2"/>
-        <v>COG(178, "Конго", "Republic of the Congo"), // Конго</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C99" t="s">
-        <v>566</v>
-      </c>
-      <c r="D99" t="s">
-        <v>567</v>
-      </c>
-      <c r="E99" t="s">
-        <v>568</v>
-      </c>
-      <c r="F99" t="s">
-        <v>569</v>
-      </c>
-      <c r="G99">
-        <v>188</v>
-      </c>
-      <c r="J99" t="str">
-        <f t="shared" si="2"/>
-        <v>CRI(188, "Коста-Рика", "Costa Rica"), // Коста-Рика</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C100" t="s">
-        <v>572</v>
-      </c>
-      <c r="D100" t="s">
-        <v>573</v>
-      </c>
-      <c r="E100" t="s">
-        <v>574</v>
-      </c>
-      <c r="F100" t="s">
-        <v>575</v>
-      </c>
-      <c r="G100">
-        <v>384</v>
-      </c>
-      <c r="J100" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV(384, "Кот д’Ивуар", "Cote d’Ivoire"), // Кот д’Ивуар</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C101" t="s">
-        <v>578</v>
-      </c>
-      <c r="D101" t="s">
-        <v>579</v>
-      </c>
-      <c r="E101" t="s">
-        <v>580</v>
-      </c>
-      <c r="F101" t="s">
-        <v>581</v>
-      </c>
-      <c r="G101">
-        <v>192</v>
-      </c>
-      <c r="J101" t="str">
-        <f t="shared" si="2"/>
-        <v>CUB(192, "Куба", "Cuba"), // Куба</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C102" t="s">
-        <v>584</v>
-      </c>
-      <c r="D102" t="s">
-        <v>585</v>
-      </c>
-      <c r="E102" t="s">
-        <v>586</v>
-      </c>
-      <c r="F102" t="s">
-        <v>587</v>
-      </c>
-      <c r="G102">
-        <v>414</v>
-      </c>
-      <c r="J102" t="str">
-        <f t="shared" si="2"/>
-        <v>KWT(414, "Кувейт", "Kuwait"), // Кувейт</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C103" t="s">
-        <v>590</v>
-      </c>
-      <c r="D103" t="s">
-        <v>591</v>
-      </c>
-      <c r="E103" t="s">
-        <v>592</v>
-      </c>
-      <c r="F103" t="s">
-        <v>593</v>
-      </c>
-      <c r="G103">
-        <v>417</v>
-      </c>
-      <c r="J103" t="str">
-        <f t="shared" si="2"/>
-        <v>KGZ(417, "Киргизия", "Kyrgyzstan"), // Киргизия</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C104" t="s">
-        <v>596</v>
-      </c>
-      <c r="D104" t="s">
-        <v>597</v>
-      </c>
-      <c r="E104" t="s">
-        <v>598</v>
-      </c>
-      <c r="F104" t="s">
-        <v>599</v>
-      </c>
-      <c r="G104">
-        <v>418</v>
-      </c>
-      <c r="J104" t="str">
-        <f t="shared" si="2"/>
-        <v>LAO(418, "Лаос", "Laos"), // Лаос</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C105" t="s">
-        <v>602</v>
-      </c>
-      <c r="D105" t="s">
-        <v>603</v>
-      </c>
-      <c r="E105" t="s">
-        <v>604</v>
-      </c>
-      <c r="F105" t="s">
-        <v>605</v>
-      </c>
-      <c r="G105">
-        <v>428</v>
-      </c>
-      <c r="J105" t="str">
-        <f t="shared" si="2"/>
-        <v>LVA(428, "Латвия", "Latvia"), // Латвия</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C106" t="s">
-        <v>608</v>
-      </c>
-      <c r="D106" t="s">
-        <v>609</v>
-      </c>
-      <c r="E106" t="s">
-        <v>610</v>
-      </c>
-      <c r="F106" t="s">
-        <v>611</v>
-      </c>
-      <c r="G106">
-        <v>426</v>
-      </c>
-      <c r="J106" t="str">
-        <f t="shared" si="2"/>
-        <v>LSO(426, "Лесото", "Lesotho"), // Лесото</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C107" t="s">
-        <v>614</v>
-      </c>
-      <c r="D107" t="s">
-        <v>615</v>
-      </c>
-      <c r="E107" t="s">
-        <v>616</v>
-      </c>
-      <c r="F107" t="s">
-        <v>617</v>
-      </c>
-      <c r="G107">
-        <v>430</v>
-      </c>
-      <c r="J107" t="str">
-        <f t="shared" si="2"/>
-        <v>LBR(430, "Либерия", "Liberia"), // Либерия</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C108" t="s">
-        <v>620</v>
-      </c>
-      <c r="D108" t="s">
-        <v>621</v>
-      </c>
-      <c r="E108" t="s">
-        <v>622</v>
-      </c>
-      <c r="F108" t="s">
-        <v>623</v>
-      </c>
-      <c r="G108">
-        <v>422</v>
-      </c>
-      <c r="J108" t="str">
-        <f t="shared" si="2"/>
-        <v>LBN(422, "Ливан", "Lebanon"), // Ливан</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C109" t="s">
-        <v>626</v>
-      </c>
-      <c r="D109" t="s">
-        <v>627</v>
-      </c>
-      <c r="E109" t="s">
-        <v>628</v>
-      </c>
-      <c r="F109" t="s">
-        <v>629</v>
-      </c>
-      <c r="G109">
-        <v>434</v>
-      </c>
-      <c r="J109" t="str">
-        <f t="shared" si="2"/>
-        <v>LBY(434, "Ливия", "Libya"), // Ливия</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C110" t="s">
-        <v>632</v>
-      </c>
-      <c r="D110" t="s">
-        <v>633</v>
-      </c>
-      <c r="E110" t="s">
-        <v>634</v>
-      </c>
-      <c r="F110" t="s">
-        <v>635</v>
-      </c>
-      <c r="G110">
-        <v>440</v>
-      </c>
-      <c r="J110" t="str">
-        <f t="shared" si="2"/>
-        <v>LTU(440, "Литва", "Lithuania"), // Литва</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C111" t="s">
-        <v>638</v>
-      </c>
-      <c r="D111" t="s">
-        <v>639</v>
-      </c>
-      <c r="E111" t="s">
-        <v>640</v>
-      </c>
-      <c r="F111" t="s">
-        <v>641</v>
-      </c>
-      <c r="G111">
-        <v>438</v>
-      </c>
-      <c r="J111" t="str">
-        <f t="shared" si="2"/>
-        <v>LIE(438, "Лихтенштейн", "Liechtenstein"), // Лихтенштейн</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>645</v>
-      </c>
-      <c r="C112" t="s">
-        <v>644</v>
-      </c>
-      <c r="D112" t="s">
-        <v>645</v>
-      </c>
-      <c r="E112" t="s">
-        <v>646</v>
-      </c>
-      <c r="F112" t="s">
-        <v>647</v>
-      </c>
-      <c r="G112">
-        <v>442</v>
-      </c>
-      <c r="J112" t="str">
-        <f t="shared" si="2"/>
-        <v>LUX(442, "Люксембург", "Luxembourg"), // Люксембург</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C113" t="s">
-        <v>650</v>
-      </c>
-      <c r="D113" t="s">
-        <v>651</v>
-      </c>
-      <c r="E113" t="s">
-        <v>652</v>
-      </c>
-      <c r="F113" t="s">
-        <v>653</v>
-      </c>
-      <c r="G113">
-        <v>480</v>
-      </c>
-      <c r="J113" t="str">
-        <f t="shared" si="2"/>
-        <v>MUS(480, "Маврикий", "Mauritius"), // Маврикий</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C114" t="s">
-        <v>656</v>
-      </c>
-      <c r="D114" t="s">
-        <v>657</v>
-      </c>
-      <c r="E114" t="s">
-        <v>658</v>
-      </c>
-      <c r="F114" t="s">
-        <v>659</v>
-      </c>
-      <c r="G114">
-        <v>478</v>
-      </c>
-      <c r="J114" t="str">
-        <f t="shared" si="2"/>
-        <v>MRT(478, "Мавритания", "Mauritania"), // Мавритания</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C115" t="s">
-        <v>662</v>
-      </c>
-      <c r="D115" t="s">
-        <v>663</v>
-      </c>
-      <c r="E115" t="s">
-        <v>664</v>
-      </c>
-      <c r="F115" t="s">
-        <v>665</v>
-      </c>
-      <c r="G115">
-        <v>450</v>
-      </c>
-      <c r="J115" t="str">
-        <f t="shared" si="2"/>
-        <v>MDG(450, "Мадагаскар", "Madagascar"), // Мадагаскар</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>666</v>
-      </c>
-      <c r="C116" t="s">
-        <v>667</v>
-      </c>
-      <c r="D116" t="s">
-        <v>668</v>
-      </c>
-      <c r="E116" t="s">
-        <v>669</v>
-      </c>
-      <c r="F116" t="s">
-        <v>670</v>
-      </c>
-      <c r="G116">
-        <v>175</v>
-      </c>
-      <c r="J116" t="str">
-        <f t="shared" si="2"/>
-        <v>MYT(175, "Майотта", "Mayotte"), // Майотта</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C117" t="s">
-        <v>673</v>
-      </c>
-      <c r="D117" t="s">
-        <v>674</v>
-      </c>
-      <c r="E117" t="s">
-        <v>675</v>
-      </c>
-      <c r="F117" t="s">
-        <v>676</v>
-      </c>
-      <c r="G117">
-        <v>446</v>
-      </c>
-      <c r="J117" t="str">
-        <f t="shared" si="2"/>
-        <v>MAC(446, "Макао", "Macau"), // Макао</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C118" t="s">
-        <v>679</v>
-      </c>
-      <c r="D118" t="s">
-        <v>680</v>
-      </c>
-      <c r="E118" t="s">
-        <v>681</v>
-      </c>
-      <c r="F118" t="s">
-        <v>682</v>
-      </c>
-      <c r="G118">
-        <v>454</v>
-      </c>
-      <c r="J118" t="str">
-        <f t="shared" si="2"/>
-        <v>MWI(454, "Малави", "Malawi"), // Малави</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>683</v>
-      </c>
-      <c r="C119" t="s">
-        <v>684</v>
-      </c>
-      <c r="D119" t="s">
-        <v>685</v>
-      </c>
-      <c r="E119" t="s">
-        <v>686</v>
-      </c>
-      <c r="F119" t="s">
-        <v>687</v>
-      </c>
-      <c r="G119">
-        <v>458</v>
-      </c>
-      <c r="J119" t="str">
-        <f t="shared" si="2"/>
-        <v>MYS(458, "Малайзия", "Malaysia"), // Малайзия</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C120" t="s">
-        <v>690</v>
-      </c>
-      <c r="D120" t="s">
-        <v>691</v>
-      </c>
-      <c r="E120" t="s">
-        <v>692</v>
-      </c>
-      <c r="F120" t="s">
-        <v>693</v>
-      </c>
-      <c r="G120">
-        <v>466</v>
-      </c>
-      <c r="J120" t="str">
-        <f t="shared" si="2"/>
-        <v>MLI(466, "Мали", "Mali"), // Мали</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C121" t="s">
-        <v>700</v>
-      </c>
-      <c r="D121" t="s">
-        <v>701</v>
-      </c>
-      <c r="E121" t="s">
-        <v>702</v>
-      </c>
-      <c r="F121" t="s">
-        <v>703</v>
-      </c>
-      <c r="G121">
-        <v>462</v>
-      </c>
-      <c r="J121" t="str">
-        <f t="shared" si="2"/>
-        <v>MDV(462, "Мальдивы", "Maldives"), // Мальдивы</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C122" t="s">
-        <v>706</v>
-      </c>
-      <c r="D122" t="s">
-        <v>707</v>
-      </c>
-      <c r="E122" t="s">
-        <v>708</v>
-      </c>
-      <c r="F122" t="s">
-        <v>709</v>
-      </c>
-      <c r="G122">
-        <v>470</v>
-      </c>
-      <c r="J122" t="str">
-        <f t="shared" si="2"/>
-        <v>MLT(470, "Мальта", "Malta"), // Мальта</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C123" t="s">
-        <v>712</v>
-      </c>
-      <c r="D123" t="s">
-        <v>713</v>
-      </c>
-      <c r="E123" t="s">
-        <v>714</v>
-      </c>
-      <c r="F123" t="s">
-        <v>715</v>
-      </c>
-      <c r="G123">
-        <v>504</v>
-      </c>
-      <c r="J123" t="str">
-        <f t="shared" si="2"/>
-        <v>MAR(504, "Марокко", "Morocco"), // Марокко</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C124" t="s">
-        <v>722</v>
-      </c>
-      <c r="D124" t="s">
-        <v>723</v>
-      </c>
-      <c r="E124" t="s">
-        <v>724</v>
-      </c>
-      <c r="F124" t="s">
-        <v>725</v>
-      </c>
-      <c r="G124">
-        <v>584</v>
-      </c>
-      <c r="J124" t="str">
-        <f t="shared" si="2"/>
-        <v>MHL(584, "Маршалловы острова", "Marshall Islands"), // Маршалловы острова</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C125" t="s">
-        <v>728</v>
-      </c>
-      <c r="D125" t="s">
-        <v>729</v>
-      </c>
-      <c r="E125" t="s">
-        <v>730</v>
-      </c>
-      <c r="F125" t="s">
-        <v>731</v>
-      </c>
-      <c r="G125">
-        <v>484</v>
-      </c>
-      <c r="J125" t="str">
-        <f t="shared" si="2"/>
-        <v>MEX(484, "Мексика", "Mexico"), // Мексика</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C126" t="s">
-        <v>734</v>
-      </c>
-      <c r="D126" t="s">
-        <v>735</v>
-      </c>
-      <c r="E126" t="s">
-        <v>736</v>
-      </c>
-      <c r="F126" t="s">
-        <v>737</v>
-      </c>
-      <c r="G126">
-        <v>583</v>
-      </c>
-      <c r="J126" t="str">
-        <f t="shared" si="2"/>
-        <v>FSM(583, "Микронезия", "Micronesia, Federated States of"), // Микронезия</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C127" t="s">
-        <v>740</v>
-      </c>
-      <c r="D127" t="s">
-        <v>741</v>
-      </c>
-      <c r="E127" t="s">
-        <v>742</v>
-      </c>
-      <c r="F127" t="s">
-        <v>743</v>
-      </c>
-      <c r="G127">
-        <v>508</v>
-      </c>
-      <c r="J127" t="str">
-        <f t="shared" si="2"/>
-        <v>MOZ(508, "Мозамбик", "Mozambique"), // Мозамбик</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C128" t="s">
-        <v>746</v>
-      </c>
-      <c r="D128" t="s">
-        <v>747</v>
-      </c>
-      <c r="E128" t="s">
-        <v>748</v>
-      </c>
-      <c r="F128" t="s">
-        <v>749</v>
-      </c>
-      <c r="G128">
-        <v>498</v>
-      </c>
-      <c r="J128" t="str">
-        <f t="shared" si="2"/>
-        <v>MDA(498, "Молдова", "Moldova"), // Молдова</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>753</v>
-      </c>
-      <c r="C129" t="s">
-        <v>752</v>
-      </c>
-      <c r="D129" t="s">
-        <v>753</v>
-      </c>
-      <c r="E129" t="s">
-        <v>754</v>
-      </c>
-      <c r="F129" t="s">
-        <v>755</v>
-      </c>
-      <c r="G129">
-        <v>492</v>
-      </c>
-      <c r="J129" t="str">
-        <f t="shared" si="2"/>
-        <v>MCO(492, "Монако", "Monaco"), // Монако</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>756</v>
-      </c>
-      <c r="C130" t="s">
-        <v>757</v>
-      </c>
-      <c r="D130" t="s">
-        <v>758</v>
-      </c>
-      <c r="E130" t="s">
-        <v>759</v>
-      </c>
-      <c r="F130" t="s">
-        <v>760</v>
-      </c>
-      <c r="G130">
-        <v>496</v>
-      </c>
-      <c r="J130" t="str">
-        <f t="shared" si="2"/>
-        <v>MNG(496, "Монголия", "Mongolia"), // Монголия</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>761</v>
-      </c>
-      <c r="C131" t="s">
-        <v>762</v>
-      </c>
-      <c r="D131" t="s">
-        <v>763</v>
-      </c>
-      <c r="E131" t="s">
-        <v>764</v>
-      </c>
-      <c r="F131" t="s">
-        <v>765</v>
-      </c>
-      <c r="G131">
-        <v>500</v>
-      </c>
-      <c r="J131" t="str">
-        <f t="shared" si="2"/>
-        <v>MSR(500, "Монтсеррат", "Montserrat"), // Монтсеррат</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C132" t="s">
-        <v>768</v>
-      </c>
-      <c r="D132" t="s">
-        <v>769</v>
-      </c>
-      <c r="E132" t="s">
-        <v>770</v>
-      </c>
-      <c r="F132" t="s">
-        <v>771</v>
-      </c>
-      <c r="G132">
-        <v>104</v>
-      </c>
-      <c r="J132" t="str">
-        <f t="shared" si="2"/>
-        <v>MMR(104, "Мьянма", "Burma"), // Мьянма</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C133" t="s">
-        <v>774</v>
-      </c>
-      <c r="D133" t="s">
-        <v>775</v>
-      </c>
-      <c r="E133" t="s">
-        <v>776</v>
-      </c>
-      <c r="F133" t="s">
-        <v>777</v>
-      </c>
-      <c r="G133">
-        <v>516</v>
-      </c>
-      <c r="J133" t="str">
-        <f t="shared" si="2"/>
-        <v>NAM(516, "Намибия", "Namibia"), // Намибия</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C134" t="s">
-        <v>785</v>
-      </c>
-      <c r="D134" t="s">
-        <v>786</v>
-      </c>
-      <c r="E134" t="s">
-        <v>787</v>
-      </c>
-      <c r="F134" t="s">
-        <v>788</v>
-      </c>
-      <c r="G134">
-        <v>524</v>
-      </c>
-      <c r="J134" t="str">
-        <f t="shared" si="2"/>
-        <v>NPL(524, "Непал", "Nepal"), // Непал</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C135" t="s">
-        <v>791</v>
-      </c>
-      <c r="D135" t="s">
-        <v>792</v>
-      </c>
-      <c r="E135" t="s">
-        <v>793</v>
-      </c>
-      <c r="F135" t="s">
-        <v>794</v>
-      </c>
-      <c r="G135">
-        <v>566</v>
-      </c>
-      <c r="J135" t="str">
-        <f t="shared" si="2"/>
-        <v>NGA(566, "Нигерия", "Nigeria"), // Нигерия</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C136" t="s">
-        <v>797</v>
-      </c>
-      <c r="D136" t="s">
-        <v>798</v>
-      </c>
-      <c r="E136" t="s">
-        <v>799</v>
-      </c>
-      <c r="F136" t="s">
-        <v>800</v>
-      </c>
-      <c r="G136">
-        <v>562</v>
-      </c>
-      <c r="J136" t="str">
-        <f t="shared" si="2"/>
-        <v>NER(562, "Нигер", "Niger"), // Нигер</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>801</v>
-      </c>
-      <c r="C137" t="s">
-        <v>802</v>
-      </c>
-      <c r="D137" t="s">
-        <v>803</v>
-      </c>
-      <c r="E137" t="s">
-        <v>804</v>
-      </c>
-      <c r="F137" t="s">
-        <v>805</v>
-      </c>
-      <c r="G137">
-        <v>530</v>
-      </c>
-      <c r="J137" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT(530, "Нидерландские Антилы", "Netherlands Antilles"), // Нидерландские Антилы</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C138" t="s">
-        <v>808</v>
-      </c>
-      <c r="D138" t="s">
-        <v>809</v>
-      </c>
-      <c r="E138" t="s">
-        <v>810</v>
-      </c>
-      <c r="F138" t="s">
-        <v>811</v>
-      </c>
-      <c r="G138">
-        <v>558</v>
-      </c>
-      <c r="J138" t="str">
-        <f t="shared" si="2"/>
-        <v>NIC(558, "Никарагуа", "Nicaragua"), // Никарагуа</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C139" t="s">
-        <v>814</v>
-      </c>
-      <c r="D139" t="s">
-        <v>815</v>
-      </c>
-      <c r="E139" t="s">
-        <v>816</v>
-      </c>
-      <c r="F139" t="s">
-        <v>817</v>
-      </c>
-      <c r="G139">
-        <v>570</v>
-      </c>
-      <c r="J139" t="str">
-        <f t="shared" si="2"/>
-        <v>NIU(570, "Ниуэ", "Niue"), // Ниуэ</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>818</v>
-      </c>
-      <c r="C140" t="s">
-        <v>819</v>
-      </c>
-      <c r="D140" t="s">
-        <v>820</v>
-      </c>
-      <c r="E140" t="s">
-        <v>821</v>
-      </c>
-      <c r="F140" t="s">
-        <v>822</v>
-      </c>
-      <c r="G140">
-        <v>554</v>
-      </c>
-      <c r="J140" t="str">
-        <f t="shared" si="2"/>
-        <v>NZL(554, "Новая Зеландия", "New Zealand"), // Новая Зеландия</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>823</v>
-      </c>
-      <c r="C141" t="s">
-        <v>824</v>
-      </c>
-      <c r="D141" t="s">
-        <v>825</v>
-      </c>
-      <c r="E141" t="s">
-        <v>826</v>
-      </c>
-      <c r="F141" t="s">
-        <v>827</v>
-      </c>
-      <c r="G141">
-        <v>540</v>
-      </c>
-      <c r="J141" t="str">
-        <f t="shared" si="2"/>
-        <v>NCL(540, "Новая Каледония", "New Caledonia"), // Новая Каледония</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C142" t="s">
-        <v>830</v>
-      </c>
-      <c r="D142" t="s">
-        <v>831</v>
-      </c>
-      <c r="E142" t="s">
-        <v>832</v>
-      </c>
-      <c r="F142" t="s">
-        <v>833</v>
-      </c>
-      <c r="G142">
-        <v>578</v>
-      </c>
-      <c r="J142" t="str">
-        <f t="shared" ref="J142:J205" si="3">F142&amp;"("&amp;G142&amp; ", """ &amp; TRIM(B142) &amp; """, """ &amp; C142 &amp; """), // " &amp; B142</f>
-        <v>NOR(578, "Норвегия", "Norway"), // Норвегия</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C143" t="s">
-        <v>835</v>
-      </c>
-      <c r="D143" t="s">
-        <v>836</v>
-      </c>
-      <c r="E143" t="s">
-        <v>837</v>
-      </c>
-      <c r="F143" t="s">
-        <v>838</v>
-      </c>
-      <c r="G143">
-        <v>784</v>
-      </c>
-      <c r="J143" t="str">
-        <f t="shared" si="3"/>
-        <v>ARE(784, "Объединенные Арабские Эмираты (ОАЭ)", "United Arab Emirates"), // Объединенные Арабские Эмираты (ОАЭ)</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C144" t="s">
-        <v>841</v>
-      </c>
-      <c r="D144" t="s">
-        <v>842</v>
-      </c>
-      <c r="E144" t="s">
-        <v>843</v>
-      </c>
-      <c r="F144" t="s">
-        <v>844</v>
-      </c>
-      <c r="G144">
-        <v>512</v>
-      </c>
-      <c r="J144" t="str">
-        <f t="shared" si="3"/>
-        <v>OMN(512, "Оман", "Oman"), // Оман</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>845</v>
-      </c>
-      <c r="C145" t="s">
-        <v>846</v>
-      </c>
-      <c r="D145" t="s">
-        <v>847</v>
-      </c>
-      <c r="E145" t="s">
-        <v>848</v>
-      </c>
-      <c r="F145" t="s">
-        <v>849</v>
-      </c>
-      <c r="G145">
-        <v>184</v>
-      </c>
-      <c r="J145" t="str">
-        <f t="shared" si="3"/>
-        <v>COK(184, "Острова Кука", "Cook Islands"), // Острова Кука</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C146" t="s">
-        <v>851</v>
-      </c>
-      <c r="D146" t="s">
-        <v>852</v>
-      </c>
-      <c r="E146" t="s">
-        <v>853</v>
-      </c>
-      <c r="F146" t="s">
-        <v>854</v>
-      </c>
-      <c r="G146">
-        <v>796</v>
-      </c>
-      <c r="J146" t="str">
-        <f t="shared" si="3"/>
-        <v>TCA(796, "Острова Тёркс и Кайкос", "Turks and Caicos Islands"), // Острова Тёркс и Кайкос</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>862</v>
-      </c>
-      <c r="C147" t="s">
-        <v>863</v>
-      </c>
-      <c r="D147" t="s">
-        <v>864</v>
-      </c>
-      <c r="E147" t="s">
-        <v>865</v>
-      </c>
-      <c r="F147" t="s">
-        <v>866</v>
-      </c>
-      <c r="G147">
-        <v>833</v>
-      </c>
-      <c r="J147" t="str">
-        <f t="shared" si="3"/>
-        <v>IMN(833, "Остров Мэн", "Isle of Man"), // Остров Мэн</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>867</v>
-      </c>
-      <c r="C148" t="s">
-        <v>868</v>
-      </c>
-      <c r="D148" t="s">
-        <v>869</v>
-      </c>
-      <c r="E148" t="s">
-        <v>870</v>
-      </c>
-      <c r="F148" t="s">
-        <v>871</v>
-      </c>
-      <c r="G148">
-        <v>574</v>
-      </c>
-      <c r="J148" t="str">
-        <f t="shared" si="3"/>
-        <v>NFK(574, "Остров Норфолк", "Norfolk Island"), // Остров Норфолк</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>872</v>
-      </c>
-      <c r="C149" t="s">
-        <v>873</v>
-      </c>
-      <c r="D149" t="s">
-        <v>874</v>
-      </c>
-      <c r="E149" t="s">
-        <v>875</v>
-      </c>
-      <c r="F149" t="s">
-        <v>876</v>
-      </c>
-      <c r="G149">
-        <v>162</v>
-      </c>
-      <c r="J149" t="str">
-        <f t="shared" si="3"/>
-        <v>CXR(162, "Остров Рождества", "Christmas Island"), // Остров Рождества</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>877</v>
-      </c>
-      <c r="C150" t="s">
-        <v>878</v>
-      </c>
-      <c r="D150" t="s">
-        <v>879</v>
-      </c>
-      <c r="E150" t="s">
-        <v>880</v>
-      </c>
-      <c r="F150" t="s">
-        <v>881</v>
-      </c>
-      <c r="G150">
-        <v>663</v>
-      </c>
-      <c r="J150" t="str">
-        <f t="shared" si="3"/>
-        <v>MAF(663, "Остров Святого Мартина", "Saint Martin"), // Остров Святого Мартина</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C151" t="s">
-        <v>888</v>
-      </c>
-      <c r="D151" t="s">
-        <v>889</v>
-      </c>
-      <c r="E151" t="s">
-        <v>890</v>
-      </c>
-      <c r="F151" t="s">
-        <v>891</v>
-      </c>
-      <c r="G151">
-        <v>586</v>
-      </c>
-      <c r="J151" t="str">
-        <f t="shared" si="3"/>
-        <v>PAK(586, "Пакистан", "Pakistan"), // Пакистан</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C152" t="s">
-        <v>894</v>
-      </c>
-      <c r="D152" t="s">
-        <v>895</v>
-      </c>
-      <c r="E152" t="s">
-        <v>896</v>
-      </c>
-      <c r="F152" t="s">
-        <v>897</v>
-      </c>
-      <c r="G152">
-        <v>585</v>
-      </c>
-      <c r="J152" t="str">
-        <f t="shared" si="3"/>
-        <v>PLW(585, "Палау", "Palau"), // Палау</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>898</v>
-      </c>
-      <c r="C153" t="s">
-        <v>899</v>
-      </c>
-      <c r="D153" t="s">
-        <v>900</v>
-      </c>
-      <c r="E153" t="s">
-        <v>901</v>
-      </c>
-      <c r="F153" t="s">
-        <v>902</v>
-      </c>
-      <c r="G153">
-        <v>275</v>
-      </c>
-      <c r="J153" t="str">
-        <f t="shared" si="3"/>
-        <v>PSE(275, "Оккупированная палестинская территория", "Palestinian Territory, Occupied"), // Оккупированная палестинская территория</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>906</v>
-      </c>
-      <c r="C154" t="s">
-        <v>905</v>
-      </c>
-      <c r="D154" t="s">
-        <v>906</v>
-      </c>
-      <c r="E154" t="s">
-        <v>907</v>
-      </c>
-      <c r="F154" t="s">
-        <v>908</v>
-      </c>
-      <c r="G154">
-        <v>591</v>
-      </c>
-      <c r="J154" t="str">
-        <f t="shared" si="3"/>
-        <v>PAN(591, "Панама", "Panama"), // Панама</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>909</v>
-      </c>
-      <c r="C155" t="s">
-        <v>910</v>
-      </c>
-      <c r="D155" t="s">
-        <v>911</v>
-      </c>
-      <c r="E155" t="s">
-        <v>912</v>
-      </c>
-      <c r="F155" t="s">
-        <v>913</v>
-      </c>
-      <c r="G155">
-        <v>598</v>
-      </c>
-      <c r="J155" t="str">
-        <f t="shared" si="3"/>
-        <v>PNG(598, "Папуа-Новая Гвинея", "Papua New Guinea"), // Папуа-Новая Гвинея</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C156" t="s">
-        <v>916</v>
-      </c>
-      <c r="D156" t="s">
-        <v>917</v>
-      </c>
-      <c r="E156" t="s">
-        <v>918</v>
-      </c>
-      <c r="F156" t="s">
-        <v>919</v>
-      </c>
-      <c r="G156">
-        <v>600</v>
-      </c>
-      <c r="J156" t="str">
-        <f t="shared" si="3"/>
-        <v>PRY(600, "Парагвай", "Paraguay"), // Парагвай</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C157" t="s">
-        <v>922</v>
-      </c>
-      <c r="D157" t="s">
-        <v>923</v>
-      </c>
-      <c r="E157" t="s">
-        <v>924</v>
-      </c>
-      <c r="F157" t="s">
-        <v>925</v>
-      </c>
-      <c r="G157">
-        <v>604</v>
-      </c>
-      <c r="J157" t="str">
-        <f t="shared" si="3"/>
-        <v>PER(604, "Перу", "Peru"), // Перу</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>926</v>
-      </c>
-      <c r="C158" t="s">
-        <v>927</v>
-      </c>
-      <c r="D158" t="s">
-        <v>928</v>
-      </c>
-      <c r="E158" t="s">
-        <v>929</v>
-      </c>
-      <c r="F158" t="s">
-        <v>930</v>
-      </c>
-      <c r="G158">
-        <v>612</v>
-      </c>
-      <c r="J158" t="str">
-        <f t="shared" si="3"/>
-        <v>PCN(612, "Питкерн", "Pitcairn"), // Питкерн</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C159" t="s">
-        <v>933</v>
-      </c>
-      <c r="D159" t="s">
-        <v>934</v>
-      </c>
-      <c r="E159" t="s">
-        <v>935</v>
-      </c>
-      <c r="F159" t="s">
-        <v>936</v>
-      </c>
-      <c r="G159">
-        <v>616</v>
-      </c>
-      <c r="J159" t="str">
-        <f t="shared" si="3"/>
-        <v>POL(616, "Польша", "Poland"), // Польша</v>
-      </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C160" t="s">
-        <v>939</v>
-      </c>
-      <c r="D160" t="s">
-        <v>940</v>
-      </c>
-      <c r="E160" t="s">
-        <v>941</v>
-      </c>
-      <c r="F160" t="s">
-        <v>942</v>
-      </c>
-      <c r="G160">
-        <v>620</v>
-      </c>
-      <c r="J160" t="str">
-        <f t="shared" si="3"/>
-        <v>PRT(620, "Португалия", "Portugal"), // Португалия</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>943</v>
-      </c>
-      <c r="C161" t="s">
-        <v>944</v>
-      </c>
-      <c r="D161" t="s">
-        <v>945</v>
-      </c>
-      <c r="E161" t="s">
-        <v>946</v>
-      </c>
-      <c r="F161" t="s">
-        <v>947</v>
-      </c>
-      <c r="G161">
-        <v>630</v>
-      </c>
-      <c r="J161" t="str">
-        <f t="shared" si="3"/>
-        <v>PRI(630, "Пуэрто-Рико", "Puerto Rico"), // Пуэрто-Рико</v>
-      </c>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>948</v>
-      </c>
-      <c r="C162" t="s">
-        <v>949</v>
-      </c>
-      <c r="D162" t="s">
-        <v>950</v>
-      </c>
-      <c r="E162" t="s">
-        <v>951</v>
-      </c>
-      <c r="F162" t="s">
-        <v>952</v>
-      </c>
-      <c r="G162">
-        <v>807</v>
-      </c>
-      <c r="J162" t="str">
-        <f t="shared" si="3"/>
-        <v>MKD(807, "Республика Македония", "Macedonia"), // Республика Македония</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>953</v>
-      </c>
-      <c r="C163" t="s">
-        <v>954</v>
-      </c>
-      <c r="D163" t="s">
-        <v>955</v>
-      </c>
-      <c r="E163" t="s">
-        <v>956</v>
-      </c>
-      <c r="F163" t="s">
-        <v>957</v>
-      </c>
-      <c r="G163">
-        <v>638</v>
-      </c>
-      <c r="J163" t="str">
-        <f t="shared" si="3"/>
-        <v>REU(638, "Реюньон", "Reunion"), // Реюньон</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C164" t="s">
-        <v>960</v>
-      </c>
-      <c r="D164" t="s">
-        <v>961</v>
-      </c>
-      <c r="E164" t="s">
-        <v>962</v>
-      </c>
-      <c r="F164" t="s">
-        <v>963</v>
-      </c>
-      <c r="G164">
-        <v>643</v>
-      </c>
-      <c r="J164" t="str">
-        <f t="shared" si="3"/>
-        <v>RUS(643, "Россия (РФ)", "Russia"), // Россия (РФ)</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C165" t="s">
-        <v>966</v>
-      </c>
-      <c r="D165" t="s">
-        <v>967</v>
-      </c>
-      <c r="E165" t="s">
-        <v>968</v>
-      </c>
-      <c r="F165" t="s">
-        <v>969</v>
-      </c>
-      <c r="G165">
-        <v>646</v>
-      </c>
-      <c r="J165" t="str">
-        <f t="shared" si="3"/>
-        <v>RWA(646, "Руанда", "Rwanda"), // Руанда</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>970</v>
-      </c>
-      <c r="C166" t="s">
-        <v>971</v>
-      </c>
-      <c r="D166" t="s">
-        <v>972</v>
-      </c>
-      <c r="E166" t="s">
-        <v>973</v>
-      </c>
-      <c r="F166" t="s">
-        <v>974</v>
-      </c>
-      <c r="G166">
-        <v>642</v>
-      </c>
-      <c r="J166" t="str">
-        <f t="shared" si="3"/>
-        <v>ROU(642, "Румыния", "Romania"), // Румыния</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C167" t="s">
-        <v>977</v>
-      </c>
-      <c r="D167" t="s">
-        <v>978</v>
-      </c>
-      <c r="E167" t="s">
-        <v>979</v>
-      </c>
-      <c r="F167" t="s">
-        <v>980</v>
-      </c>
-      <c r="G167">
-        <v>882</v>
-      </c>
-      <c r="J167" t="str">
-        <f t="shared" si="3"/>
-        <v>WSM(882, "Самоа", "Samoa"), // Самоа</v>
-      </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>984</v>
-      </c>
-      <c r="C168" t="s">
-        <v>983</v>
-      </c>
-      <c r="D168" t="s">
-        <v>984</v>
-      </c>
-      <c r="E168" t="s">
-        <v>985</v>
-      </c>
-      <c r="F168" t="s">
-        <v>986</v>
-      </c>
-      <c r="G168">
-        <v>674</v>
-      </c>
-      <c r="J168" t="str">
-        <f t="shared" si="3"/>
-        <v>SMR(674, "Сан-Марино", "San Marino"), // Сан-Марино</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C169" t="s">
-        <v>989</v>
-      </c>
-      <c r="D169" t="s">
-        <v>990</v>
-      </c>
-      <c r="E169" t="s">
-        <v>991</v>
-      </c>
-      <c r="F169" t="s">
-        <v>992</v>
-      </c>
-      <c r="G169">
-        <v>678</v>
-      </c>
-      <c r="J169" t="str">
-        <f t="shared" si="3"/>
-        <v>STP(678, "Сан-Томе и Принсипи", "Sao Tome and Principe"), // Сан-Томе и Принсипи</v>
-      </c>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C170" t="s">
-        <v>995</v>
-      </c>
-      <c r="D170" t="s">
-        <v>996</v>
-      </c>
-      <c r="E170" t="s">
-        <v>997</v>
-      </c>
-      <c r="F170" t="s">
-        <v>998</v>
-      </c>
-      <c r="G170">
-        <v>682</v>
-      </c>
-      <c r="J170" t="str">
-        <f t="shared" si="3"/>
-        <v>SAU(682, "Саудовская Аравия", "Saudi Arabia"), // Саудовская Аравия</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C171" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D171" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F171" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G171">
-        <v>748</v>
-      </c>
-      <c r="J171" t="str">
-        <f t="shared" si="3"/>
-        <v>SWZ(748, "Свазиленд", "Swaziland"), // Свазиленд</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C172" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F172" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G172">
-        <v>654</v>
-      </c>
-      <c r="J172" t="str">
-        <f t="shared" si="3"/>
-        <v>SHN(654, "Святая Елена", "Saint Helena"), // Святая Елена</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C173" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D173" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F173" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G173">
-        <v>408</v>
-      </c>
-      <c r="J173" t="str">
-        <f t="shared" si="3"/>
-        <v>PRK(408, "Северная Корея (КНДР)", "Korea, North"), // Северная Корея (КНДР)</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C174" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D174" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F174" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G174">
-        <v>580</v>
-      </c>
-      <c r="J174" t="str">
-        <f t="shared" si="3"/>
-        <v>MNP(580, "Северные Марианские острова", "Northern Mariana Islands"), // Северные Марианские острова</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D175" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E175" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F175" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G175">
-        <v>690</v>
-      </c>
-      <c r="J175" t="str">
-        <f t="shared" si="3"/>
-        <v>SYC(690, "Сейшелы", "Seychelles"), // Сейшелы</v>
-      </c>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C176" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D176" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E176" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F176" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G176">
-        <v>652</v>
-      </c>
-      <c r="J176" t="str">
-        <f t="shared" si="3"/>
-        <v>BLM(652, "Сен-Бартельми", "Saint Barthélemy"), // Сен-Бартельми</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E177" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F177" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G177">
-        <v>666</v>
-      </c>
-      <c r="J177" t="str">
-        <f t="shared" si="3"/>
-        <v>SPM(666, "Сен-Пьер и Микелон", "Saint Pierre and Miquelon"), // Сен-Пьер и Микелон</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E178" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F178" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G178">
-        <v>686</v>
-      </c>
-      <c r="J178" t="str">
-        <f t="shared" si="3"/>
-        <v>SEN(686, "Сенегал", "Senegal"), // Сенегал</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D179" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E179" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F179" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G179">
-        <v>670</v>
-      </c>
-      <c r="J179" t="str">
-        <f t="shared" si="3"/>
-        <v>VCT(670, "Сент-Винсент и Гренадины", "Saint Vincent and the Grenadines"), // Сент-Винсент и Гренадины</v>
-      </c>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F180" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G180">
-        <v>659</v>
-      </c>
-      <c r="J180" t="str">
-        <f t="shared" si="3"/>
-        <v>KNA(659, "Сент-Китс и Невис", "Saint Kitts and Nevis"), // Сент-Китс и Невис</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F181" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G181">
-        <v>662</v>
-      </c>
-      <c r="J181" t="str">
-        <f t="shared" si="3"/>
-        <v>LCA(662, "Сент-Люсия", "Saint Lucia"), // Сент-Люсия</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F182" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G182">
-        <v>688</v>
-      </c>
-      <c r="J182" t="str">
-        <f t="shared" si="3"/>
-        <v>SRB(688, "Сербия", "Serbia"), // Сербия</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D183" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F183" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G183">
-        <v>702</v>
-      </c>
-      <c r="J183" t="str">
-        <f t="shared" si="3"/>
-        <v>SGP(702, "Сингапур", "Singapore"), // Сингапур</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G184">
-        <v>760</v>
-      </c>
-      <c r="J184" t="str">
-        <f t="shared" si="3"/>
-        <v>SYR(760, "Сирия", "Syria"), // Сирия</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C185" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D185" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F185" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G185">
-        <v>703</v>
-      </c>
-      <c r="J185" t="str">
-        <f t="shared" si="3"/>
-        <v>SVK(703, "Словакия", "Slovakia"), // Словакия</v>
-      </c>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F186" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G186">
-        <v>705</v>
-      </c>
-      <c r="J186" t="str">
-        <f t="shared" si="3"/>
-        <v>SVN(705, "Словения", "Slovenia"), // Словения</v>
-      </c>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C187" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D187" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G187">
-        <v>90</v>
-      </c>
-      <c r="J187" t="str">
-        <f t="shared" si="3"/>
-        <v>SLB(90, "Соломоновы острова", "Solomon Islands"), // Соломоновы острова</v>
-      </c>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G188">
-        <v>706</v>
-      </c>
-      <c r="J188" t="str">
-        <f t="shared" si="3"/>
-        <v>SOM(706, "Сомали", "Somalia"), // Сомали</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C189" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G189">
-        <v>736</v>
-      </c>
-      <c r="J189" t="str">
-        <f t="shared" si="3"/>
-        <v>SDN(736, "Судан", "Sudan"), // Судан</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G190">
-        <v>740</v>
-      </c>
-      <c r="J190" t="str">
-        <f t="shared" si="3"/>
-        <v>SUR(740, "Суринам", "Suriname"), // Суринам</v>
-      </c>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F191" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G191">
-        <v>694</v>
-      </c>
-      <c r="J191" t="str">
-        <f t="shared" si="3"/>
-        <v>SLE(694, "Сьерра-Леоне", "Sierra Leone"), // Сьерра-Леоне</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G192">
-        <v>762</v>
-      </c>
-      <c r="J192" t="str">
-        <f t="shared" si="3"/>
-        <v>TJK(762, "Таджикистан", "Tajikistan"), // Таджикистан</v>
-      </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F193" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G193">
-        <v>764</v>
-      </c>
-      <c r="J193" t="str">
-        <f t="shared" si="3"/>
-        <v>THA(764, "Таиланд", "Thailand"), // Таиланд</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G194">
-        <v>158</v>
-      </c>
-      <c r="J194" t="str">
-        <f t="shared" si="3"/>
-        <v>TWN(158, "Тайвань (Китай)", "Taiwan"), // Тайвань (Китай)</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D195" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G195">
-        <v>834</v>
-      </c>
-      <c r="J195" t="str">
-        <f t="shared" si="3"/>
-        <v>TZA(834, "Танзания", "Tanzania"), // Танзания</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G196">
-        <v>626</v>
-      </c>
-      <c r="J196" t="str">
-        <f t="shared" si="3"/>
-        <v>TLS(626, "Тимор-Лесте", "Timor-Leste"), // Тимор-Лесте</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G197">
-        <v>768</v>
-      </c>
-      <c r="J197" t="str">
-        <f t="shared" si="3"/>
-        <v>TGO(768, "Того", "Togo"), // Того</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G198">
-        <v>776</v>
-      </c>
-      <c r="J198" t="str">
-        <f t="shared" si="3"/>
-        <v>TON(776, "Тонга", "Tonga"), // Тонга</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D199" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G199">
-        <v>780</v>
-      </c>
-      <c r="J199" t="str">
-        <f t="shared" si="3"/>
-        <v>TTO(780, "Тринидад и Тобаго", "Trinidad and Tobago"), // Тринидад и Тобаго</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G200">
-        <v>798</v>
-      </c>
-      <c r="J200" t="str">
-        <f t="shared" si="3"/>
-        <v>TUV(798, "Тувалу", "Tuvalu"), // Тувалу</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G201">
-        <v>788</v>
-      </c>
-      <c r="J201" t="str">
-        <f t="shared" si="3"/>
-        <v>TUN(788, "Тунис", "Tunisia"), // Тунис</v>
-      </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G202">
-        <v>795</v>
-      </c>
-      <c r="J202" t="str">
-        <f t="shared" si="3"/>
-        <v>TKM(795, "Туркмения", "Turkmenistan"), // Туркмения</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G203">
-        <v>792</v>
-      </c>
-      <c r="J203" t="str">
-        <f t="shared" si="3"/>
-        <v>TUR(792, "Турция", "Turkey"), // Турция</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1196</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1197</v>
-      </c>
-      <c r="G204">
-        <v>800</v>
-      </c>
-      <c r="J204" t="str">
-        <f t="shared" si="3"/>
-        <v>UGA(800, "Уганда", "Uganda"), // Уганда</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G205">
-        <v>860</v>
-      </c>
-      <c r="J205" t="str">
-        <f t="shared" si="3"/>
-        <v>UZB(860, "Узбекистан", "Uzbekistan"), // Узбекистан</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F206" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G206">
-        <v>804</v>
-      </c>
-      <c r="J206" t="str">
-        <f t="shared" ref="J206:J237" si="4">F206&amp;"("&amp;G206&amp; ", """ &amp; TRIM(B206) &amp; """, """ &amp; C206 &amp; """), // " &amp; B206</f>
-        <v>UKR(804, "Украина", "Ukraine"), // Украина</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G207">
-        <v>876</v>
-      </c>
-      <c r="J207" t="str">
-        <f t="shared" si="4"/>
-        <v>WLF(876, "Уоллис и Футуна", "Wallis and Futuna"), // Уоллис и Футуна</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G208">
-        <v>858</v>
-      </c>
-      <c r="J208" t="str">
-        <f t="shared" si="4"/>
-        <v>URY(858, "Уругвай", "Uruguay"), // Уругвай</v>
-      </c>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E209" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G209">
-        <v>234</v>
-      </c>
-      <c r="J209" t="str">
-        <f t="shared" si="4"/>
-        <v>FRO(234, "Фарерские острова", "Faroe Islands"), // Фарерские острова</v>
-      </c>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F210" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G210">
-        <v>242</v>
-      </c>
-      <c r="J210" t="str">
-        <f t="shared" si="4"/>
-        <v>FJI(242, "Фиджи", "Fiji"), // Фиджи</v>
-      </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D211" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E211" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F211" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G211">
-        <v>608</v>
-      </c>
-      <c r="J211" t="str">
-        <f t="shared" si="4"/>
-        <v>PHL(608, "Филиппины", "Philippines"), // Филиппины</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D212" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E212" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G212">
-        <v>246</v>
-      </c>
-      <c r="J212" t="str">
-        <f t="shared" si="4"/>
-        <v>FIN(246, "Финляндия", "Finland"), // Финляндия</v>
-      </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G213">
-        <v>238</v>
-      </c>
-      <c r="J213" t="str">
-        <f t="shared" si="4"/>
-        <v>FLK(238, "Фолклендские (Мальвинские) острова", "Falkland Islands (Islas Malvinas)"), // Фолклендские (Мальвинские) острова</v>
-      </c>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G214">
-        <v>250</v>
-      </c>
-      <c r="J214" t="str">
-        <f t="shared" si="4"/>
-        <v>FRA(250, "Франция", "France"), // Франция</v>
-      </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G215">
-        <v>254</v>
-      </c>
-      <c r="J215" t="str">
-        <f t="shared" si="4"/>
-        <v>GUF(254, "Французская Гвиана", "French Guiana"), // Французская Гвиана</v>
-      </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D216" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G216">
-        <v>258</v>
-      </c>
-      <c r="J216" t="str">
-        <f t="shared" si="4"/>
-        <v>PYF(258, "Французская Полинезия", "French Polynesia"), // Французская Полинезия</v>
-      </c>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F217" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G217">
-        <v>191</v>
-      </c>
-      <c r="J217" t="str">
-        <f t="shared" si="4"/>
-        <v>HRV(191, "Хорватия", "Croatia"), // Хорватия</v>
-      </c>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G218">
-        <v>140</v>
-      </c>
-      <c r="J218" t="str">
-        <f t="shared" si="4"/>
-        <v>CAF(140, "Центральноафриканская Республика (ЦАР)", "Central African Republic"), // Центральноафриканская Республика (ЦАР)</v>
-      </c>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G219">
-        <v>148</v>
-      </c>
-      <c r="J219" t="str">
-        <f t="shared" si="4"/>
-        <v>TCD(148, "Чад", "Chad"), // Чад</v>
-      </c>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F220" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G220">
-        <v>499</v>
-      </c>
-      <c r="J220" t="str">
-        <f t="shared" si="4"/>
-        <v>MNE(499, "Черногория", "Montenegro"), // Черногория</v>
-      </c>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G221">
-        <v>203</v>
-      </c>
-      <c r="J221" t="str">
-        <f t="shared" si="4"/>
-        <v>CZE(203, "Чешская Республика", "Czech Republic"), // Чешская Республика</v>
-      </c>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G222">
-        <v>152</v>
-      </c>
-      <c r="J222" t="str">
-        <f t="shared" si="4"/>
-        <v>CHL(152, "Чили", "Chile"), // Чили</v>
-      </c>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F223" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G223">
-        <v>756</v>
-      </c>
-      <c r="J223" t="str">
-        <f t="shared" si="4"/>
-        <v>CHE(756, "Швейцария", "Switzerland"), // Швейцария</v>
-      </c>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G224">
-        <v>752</v>
-      </c>
-      <c r="J224" t="str">
-        <f t="shared" si="4"/>
-        <v>SWE(752, "Швеция", "Sweden"), // Швеция</v>
-      </c>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E225" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G225">
-        <v>744</v>
-      </c>
-      <c r="J225" t="str">
-        <f t="shared" si="4"/>
-        <v>SJM(744, "Шпицберген и Ян Майен", "Svalbard and Jan Mayen"), // Шпицберген и Ян Майен</v>
-      </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D226" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E226" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F226" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G226">
-        <v>144</v>
-      </c>
-      <c r="J226" t="str">
-        <f t="shared" si="4"/>
-        <v>LKA(144, "Шри-Ланка", "Sri Lanka"), // Шри-Ланка</v>
-      </c>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C227" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D227" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G227">
-        <v>218</v>
-      </c>
-      <c r="J227" t="str">
-        <f t="shared" si="4"/>
-        <v>ECU(218, "Эквадор", "Ecuador"), // Эквадор</v>
-      </c>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D228" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G228">
-        <v>226</v>
-      </c>
-      <c r="J228" t="str">
-        <f t="shared" si="4"/>
-        <v>GNQ(226, "Экваториальная Гвинея", "Equatorial Guinea"), // Экваториальная Гвинея</v>
-      </c>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D229" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G229">
-        <v>222</v>
-      </c>
-      <c r="J229" t="str">
-        <f t="shared" si="4"/>
-        <v>SLV(222, "Эль-Сальвадор", "El Salvador"), // Эль-Сальвадор</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G230">
-        <v>232</v>
-      </c>
-      <c r="J230" t="str">
-        <f t="shared" si="4"/>
-        <v>ERI(232, "Эритрея", "Eritrea"), // Эритрея</v>
-      </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D231" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E231" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G231">
-        <v>233</v>
-      </c>
-      <c r="J231" t="str">
-        <f t="shared" si="4"/>
-        <v>EST(233, "Эстония", "Estonia"), // Эстония</v>
-      </c>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D232" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E232" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G232">
-        <v>231</v>
-      </c>
-      <c r="J232" t="str">
-        <f t="shared" si="4"/>
-        <v>ETH(231, "Эфиопия", "Ethiopia"), // Эфиопия</v>
-      </c>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G233">
-        <v>710</v>
-      </c>
-      <c r="J233" t="str">
-        <f t="shared" si="4"/>
-        <v>ZAF(710, "Южная Африка (ЮАР)", "South Africa"), // Южная Африка (ЮАР)</v>
-      </c>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D234" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E234" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G234">
-        <v>239</v>
-      </c>
-      <c r="J234" t="str">
-        <f t="shared" si="4"/>
-        <v>SGS(239, "Южная Джорджия и Южные Сандвичевы острова", "South Georgia and the South Sandwich Islands"), // Южная Джорджия и Южные Сандвичевы острова</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E235" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1379</v>
-      </c>
-      <c r="G235">
-        <v>410</v>
-      </c>
-      <c r="J235" t="str">
-        <f t="shared" si="4"/>
-        <v>KOR(410, "Южная Корея", "Korea, South"), // Южная Корея</v>
-      </c>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B236" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C236" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D236" t="s">
-        <v>869</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G236">
-        <v>388</v>
-      </c>
-      <c r="J236" t="str">
-        <f t="shared" si="4"/>
-        <v>JAM(388, "Ямайка", "Jamaica"), // Ямайка</v>
-      </c>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C237" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D237" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E237" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F237" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G237">
-        <v>392</v>
-      </c>
-      <c r="J237" t="str">
-        <f t="shared" si="4"/>
-        <v>JPN(392, "Япония", "Japan"), // Япония</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:G237"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
